--- a/output/damage/TWN_osm_fl_rcp8p5_damage_1.xlsx
+++ b/output/damage/TWN_osm_fl_rcp8p5_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2395796626.692474</v>
+        <v>2399892726.889364</v>
       </c>
       <c r="F2" t="n">
-        <v>653399080.0070384</v>
+        <v>654516198.2425538</v>
       </c>
       <c r="G2" t="n">
-        <v>3266995400.035192</v>
+        <v>3272580991.21277</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6593006.675756418</v>
+        <v>6797642.269694684</v>
       </c>
       <c r="F3" t="n">
-        <v>2472377.503408657</v>
+        <v>2549115.851135507</v>
       </c>
       <c r="G3" t="n">
-        <v>12361887.51704329</v>
+        <v>12745579.25567753</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2504767378.08458</v>
+        <v>2508860884.010655</v>
       </c>
       <c r="F4" t="n">
-        <v>683118375.8412491</v>
+        <v>684234786.5483603</v>
       </c>
       <c r="G4" t="n">
-        <v>3415591879.206246</v>
+        <v>3421173932.741802</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6811543.866358086</v>
+        <v>7016179.460296353</v>
       </c>
       <c r="F5" t="n">
-        <v>2554328.949884282</v>
+        <v>2631067.297611132</v>
       </c>
       <c r="G5" t="n">
-        <v>12771644.74942141</v>
+        <v>13155336.48805566</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2760310197.88762</v>
+        <v>2764323436.01418</v>
       </c>
       <c r="F6" t="n">
-        <v>752811872.1511691</v>
+        <v>753906391.6402308</v>
       </c>
       <c r="G6" t="n">
-        <v>3764059360.755845</v>
+        <v>3769531958.201154</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7212779.424014604</v>
+        <v>7331893.717578024</v>
       </c>
       <c r="F7" t="n">
-        <v>2704792.284005477</v>
+        <v>2749460.144091759</v>
       </c>
       <c r="G7" t="n">
-        <v>13523961.42002738</v>
+        <v>13747300.72045879</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2928602035.715494</v>
+        <v>2932578641.071875</v>
       </c>
       <c r="F8" t="n">
-        <v>798709646.1042255</v>
+        <v>799794174.8377839</v>
       </c>
       <c r="G8" t="n">
-        <v>3993548230.521128</v>
+        <v>3998970874.18892</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7402563.033461181</v>
+        <v>7504800.016994816</v>
       </c>
       <c r="F9" t="n">
-        <v>2775961.137547943</v>
+        <v>2814300.006373057</v>
       </c>
       <c r="G9" t="n">
-        <v>13879805.68773971</v>
+        <v>14071500.03186528</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3192624940.331901</v>
+        <v>3196601545.688281</v>
       </c>
       <c r="F10" t="n">
-        <v>870715892.8177909</v>
+        <v>871800421.5513493</v>
       </c>
       <c r="G10" t="n">
-        <v>4353579464.088955</v>
+        <v>4359002107.756746</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7633467.972893581</v>
+        <v>7735704.956427217</v>
       </c>
       <c r="F11" t="n">
-        <v>2862550.489835093</v>
+        <v>2900889.358660207</v>
       </c>
       <c r="G11" t="n">
-        <v>14312752.44917547</v>
+        <v>14504446.79330103</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3374994139.139509</v>
+        <v>3378714185.306456</v>
       </c>
       <c r="F12" t="n">
-        <v>920452947.0380479</v>
+        <v>921467505.0835787</v>
       </c>
       <c r="G12" t="n">
-        <v>4602264735.19024</v>
+        <v>4607337525.417893</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7822107.991088375</v>
+        <v>7924344.974622011</v>
       </c>
       <c r="F13" t="n">
-        <v>2933290.496658141</v>
+        <v>2971629.365483254</v>
       </c>
       <c r="G13" t="n">
-        <v>14666452.48329071</v>
+        <v>14858146.82741627</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3548892551.447</v>
+        <v>3551648383.519265</v>
       </c>
       <c r="F14" t="n">
-        <v>967879786.7582725</v>
+        <v>968631377.3234358</v>
       </c>
       <c r="G14" t="n">
-        <v>4839398933.791363</v>
+        <v>4843156886.617179</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8022590.534187121</v>
+        <v>8082713.710903432</v>
       </c>
       <c r="F15" t="n">
-        <v>3008471.450320171</v>
+        <v>3031017.641588788</v>
       </c>
       <c r="G15" t="n">
-        <v>15042357.25160085</v>
+        <v>15155088.20794394</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3774328364.177093</v>
+        <v>3777084196.249358</v>
       </c>
       <c r="F16" t="n">
-        <v>1029362281.139207</v>
+        <v>1030113871.70437</v>
       </c>
       <c r="G16" t="n">
-        <v>5146811405.696034</v>
+        <v>5150569358.521851</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8411749.858246706</v>
+        <v>8447216.61367391</v>
       </c>
       <c r="F17" t="n">
-        <v>3154406.196842515</v>
+        <v>3167706.230127716</v>
       </c>
       <c r="G17" t="n">
-        <v>15772030.98421258</v>
+        <v>15838531.15063858</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3957108258.084845</v>
+        <v>3959153858.435343</v>
       </c>
       <c r="F18" t="n">
-        <v>1079211343.114048</v>
+        <v>1079769234.11873</v>
       </c>
       <c r="G18" t="n">
-        <v>5396056715.570241</v>
+        <v>5398846170.593649</v>
       </c>
     </row>
     <row r="19">

--- a/output/damage/TWN_osm_fl_rcp8p5_damage_1.xlsx
+++ b/output/damage/TWN_osm_fl_rcp8p5_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2399892726.889364</v>
+        <v>786974946.6503377</v>
       </c>
       <c r="F2" t="n">
-        <v>654516198.2425538</v>
+        <v>590231209.9877533</v>
       </c>
       <c r="G2" t="n">
-        <v>3272580991.21277</v>
+        <v>983718683.3129222</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6797642.269694684</v>
+        <v>8556928.978965666</v>
       </c>
       <c r="F3" t="n">
-        <v>2549115.851135507</v>
+        <v>6417696.73422425</v>
       </c>
       <c r="G3" t="n">
-        <v>12745579.25567753</v>
+        <v>10696161.22370708</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2508860884.010655</v>
+        <v>822769826.0269077</v>
       </c>
       <c r="F4" t="n">
-        <v>684234786.5483603</v>
+        <v>617077369.5201807</v>
       </c>
       <c r="G4" t="n">
-        <v>3421173932.741802</v>
+        <v>1028462282.533635</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7016179.460296353</v>
+        <v>8840563.944195945</v>
       </c>
       <c r="F5" t="n">
-        <v>2631067.297611132</v>
+        <v>6630422.958146958</v>
       </c>
       <c r="G5" t="n">
-        <v>13155336.48805566</v>
+        <v>11050704.93024493</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2764323436.01418</v>
+        <v>906710923.0051646</v>
       </c>
       <c r="F6" t="n">
-        <v>753906391.6402308</v>
+        <v>680033192.2538733</v>
       </c>
       <c r="G6" t="n">
-        <v>3769531958.201154</v>
+        <v>1133388653.756456</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7331893.717578024</v>
+        <v>9361319.396079145</v>
       </c>
       <c r="F7" t="n">
-        <v>2749460.144091759</v>
+        <v>7020989.547059359</v>
       </c>
       <c r="G7" t="n">
-        <v>13747300.72045879</v>
+        <v>11701649.24509893</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2932578641.071875</v>
+        <v>961991683.7428241</v>
       </c>
       <c r="F8" t="n">
-        <v>799794174.8377839</v>
+        <v>721493762.8071179</v>
       </c>
       <c r="G8" t="n">
-        <v>3998970874.18892</v>
+        <v>1202489604.67853</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7504800.016994816</v>
+        <v>9607635.674413536</v>
       </c>
       <c r="F9" t="n">
-        <v>2814300.006373057</v>
+        <v>7205726.755810153</v>
       </c>
       <c r="G9" t="n">
-        <v>14071500.03186528</v>
+        <v>12009544.59301692</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3196601545.688281</v>
+        <v>1048718331.973319</v>
       </c>
       <c r="F10" t="n">
-        <v>871800421.5513493</v>
+        <v>786538748.9799889</v>
       </c>
       <c r="G10" t="n">
-        <v>4359002107.756746</v>
+        <v>1310897914.966648</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7735704.956427217</v>
+        <v>9907322.48875894</v>
       </c>
       <c r="F11" t="n">
-        <v>2900889.358660207</v>
+        <v>7430491.866569204</v>
       </c>
       <c r="G11" t="n">
-        <v>14504446.79330103</v>
+        <v>12384153.11094867</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3378714185.306456</v>
+        <v>1108623245.814198</v>
       </c>
       <c r="F12" t="n">
-        <v>921467505.0835787</v>
+        <v>831467434.3606486</v>
       </c>
       <c r="G12" t="n">
-        <v>4607337525.417893</v>
+        <v>1385779057.267748</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7924344.974622011</v>
+        <v>10152154.5233175</v>
       </c>
       <c r="F13" t="n">
-        <v>2971629.365483254</v>
+        <v>7614115.892488128</v>
       </c>
       <c r="G13" t="n">
-        <v>14858146.82741627</v>
+        <v>12690193.15414688</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3551648383.519265</v>
+        <v>1165745662.727023</v>
       </c>
       <c r="F14" t="n">
-        <v>968631377.3234358</v>
+        <v>874309247.0452669</v>
       </c>
       <c r="G14" t="n">
-        <v>4843156886.617179</v>
+        <v>1457182078.408778</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8082713.710903432</v>
+        <v>10412356.72956229</v>
       </c>
       <c r="F15" t="n">
-        <v>3031017.641588788</v>
+        <v>7809267.547171716</v>
       </c>
       <c r="G15" t="n">
-        <v>15155088.20794394</v>
+        <v>13015445.91195286</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3777084196.249358</v>
+        <v>1239797163.893575</v>
       </c>
       <c r="F16" t="n">
-        <v>1030113871.70437</v>
+        <v>929847872.9201813</v>
       </c>
       <c r="G16" t="n">
-        <v>5150569358.521851</v>
+        <v>1549746454.866969</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8447216.61367391</v>
+        <v>10917438.68401035</v>
       </c>
       <c r="F17" t="n">
-        <v>3167706.230127716</v>
+        <v>8188079.01300776</v>
       </c>
       <c r="G17" t="n">
-        <v>15838531.15063858</v>
+        <v>13646798.35501293</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3959153858.435343</v>
+        <v>1299836983.490195</v>
       </c>
       <c r="F18" t="n">
-        <v>1079769234.11873</v>
+        <v>974877737.6176465</v>
       </c>
       <c r="G18" t="n">
-        <v>5398846170.593649</v>
+        <v>1624796229.362744</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8775991.321892142</v>
+        <v>11390180.25532855</v>
       </c>
       <c r="F19" t="n">
-        <v>3290996.745709554</v>
+        <v>8542635.191496413</v>
       </c>
       <c r="G19" t="n">
-        <v>16454983.72854777</v>
+        <v>14237725.31916069</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4147343922.505819</v>
+        <v>1362325886.008341</v>
       </c>
       <c r="F20" t="n">
-        <v>1131093797.047041</v>
+        <v>1021744414.506256</v>
       </c>
       <c r="G20" t="n">
-        <v>5655468985.235207</v>
+        <v>1702907357.510426</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9131726.217725461</v>
+        <v>11851881.3256731</v>
       </c>
       <c r="F21" t="n">
-        <v>3424397.331647049</v>
+        <v>8888910.99425482</v>
       </c>
       <c r="G21" t="n">
-        <v>17121986.65823524</v>
+        <v>14814851.65709137</v>
       </c>
     </row>
   </sheetData>
